--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.2</t>
+    <t>193.3</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -89,334 +89,343 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Deceduto</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Codice Fiscale</t>
+  </si>
+  <si>
+    <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità   - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato Residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Ultimo luogo</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte</t>
+  </si>
+  <si>
+    <t>dataUltimoLuogo</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.ultimoLuogo</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Sentenza estera di morte</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Coniuge</t>
+  </si>
+  <si>
+    <t>evento.coniuge</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Unito civilmente</t>
+  </si>
+  <si>
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Data richiesta</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte</t>
+    <t>evento.trascrizioneMorte.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Dati della trascrizione</t>
+  </si>
+  <si>
+    <t>Data richiesta trascrizione</t>
   </si>
   <si>
     <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.autoritaMittente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Deceduto</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>Ultimo luogo</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>dataUltimoLuogo</t>
-  </si>
-  <si>
-    <t>Stato</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.ultimoLuogo</t>
-  </si>
-  <si>
-    <t>idStato</t>
-  </si>
-  <si>
-    <t>Stato - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStato</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>idProvincia</t>
-  </si>
-  <si>
-    <t>Provincia - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvincia</t>
-  </si>
-  <si>
-    <t>Comune</t>
-  </si>
-  <si>
-    <t>idComune</t>
-  </si>
-  <si>
-    <t>Comune - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComune</t>
-  </si>
-  <si>
-    <t>Sentenza estera di morte</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Coniuge</t>
-  </si>
-  <si>
-    <t>evento.coniuge</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Unito civilmente</t>
-  </si>
-  <si>
-    <t>Dati della trascrizione</t>
-  </si>
-  <si>
-    <t>Data richiesta trascrizione</t>
   </si>
   <si>
     <t>Riassunto</t>
@@ -502,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -512,7 +521,7 @@
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -744,13 +753,13 @@
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -761,13 +770,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -784,13 +793,13 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -801,16 +810,16 @@
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -821,16 +830,16 @@
         <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -841,16 +850,16 @@
         <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -858,19 +867,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -878,19 +887,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -898,19 +907,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -918,19 +927,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -938,19 +947,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -958,19 +967,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -978,19 +987,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -998,19 +1007,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -1018,19 +1027,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -1038,19 +1047,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1058,19 +1067,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -1078,19 +1087,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1098,19 +1107,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1118,19 +1127,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1138,19 +1147,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1158,16 +1167,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>74</v>
@@ -1178,16 +1187,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>76</v>
@@ -1198,16 +1207,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>78</v>
@@ -1218,16 +1227,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>80</v>
@@ -1238,16 +1247,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>82</v>
@@ -1258,19 +1267,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1278,13 +1287,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>87</v>
@@ -1298,13 +1307,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>87</v>
@@ -1318,13 +1327,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>87</v>
@@ -1338,13 +1347,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>87</v>
@@ -1358,13 +1367,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>87</v>
@@ -1378,13 +1387,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>87</v>
@@ -1398,19 +1407,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1418,19 +1427,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1438,19 +1447,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1458,19 +1467,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1478,19 +1487,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1498,19 +1507,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1518,19 +1527,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1538,19 +1547,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1558,19 +1567,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1578,19 +1587,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1598,19 +1607,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1618,19 +1627,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1638,19 +1647,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1658,19 +1667,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1678,19 +1687,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1698,19 +1707,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1718,19 +1727,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1738,19 +1747,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1758,19 +1767,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1778,19 +1787,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1798,19 +1807,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1818,19 +1827,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1838,19 +1847,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1858,19 +1867,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1878,19 +1887,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1898,19 +1907,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1918,19 +1927,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1938,19 +1947,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1958,19 +1967,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1978,19 +1987,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -1998,19 +2007,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2018,19 +2027,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2038,19 +2047,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2058,19 +2067,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2078,19 +2087,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2098,19 +2107,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2118,19 +2127,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2138,19 +2147,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2158,19 +2167,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2178,19 +2187,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2198,19 +2207,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2218,19 +2227,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2238,19 +2247,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2258,19 +2267,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2278,19 +2287,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2298,19 +2307,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2318,19 +2327,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2338,19 +2347,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2358,19 +2367,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2378,19 +2387,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2398,19 +2407,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2418,19 +2427,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2438,19 +2447,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2458,19 +2467,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2478,19 +2487,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2498,19 +2507,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2518,19 +2527,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2538,21 +2547,81 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -335,6 +341,9 @@
     <t>evento.coniuge</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -399,6 +408,9 @@
   </si>
   <si>
     <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -511,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -523,6 +535,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -544,105 +557,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -664,1965 +695,2262 @@
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,34 +32,37 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Dichiarazione di conformità</t>
+  </si>
+  <si>
+    <t>Sentenza straniera</t>
+  </si>
+  <si>
+    <t>Traduzione sentenza straniera</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.3</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Dichiarazione di conformità</t>
-  </si>
-  <si>
-    <t>Sentenza straniera</t>
-  </si>
-  <si>
-    <t>Traduzione sentenza straniera</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.3</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -696,2261 +699,2261 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -344,7 +344,7 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -413,7 +413,7 @@
     <t>Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -538,7 +538,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -173,6 +173,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -276,6 +282,9 @@
   </si>
   <si>
     <t>nomeComune</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Sentenza estera di morte</t>
@@ -526,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1055,7 +1064,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>31</v>
@@ -1147,7 +1156,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>31</v>
@@ -1256,19 +1265,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1279,19 +1288,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1302,16 +1311,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>79</v>
@@ -1325,7 +1334,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>80</v>
@@ -1334,7 +1343,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>81</v>
@@ -1348,7 +1357,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>82</v>
@@ -1357,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>83</v>
@@ -1371,7 +1380,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>84</v>
@@ -1380,7 +1389,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>85</v>
@@ -1394,7 +1403,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>86</v>
@@ -1403,7 +1412,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>87</v>
@@ -1417,19 +1426,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1440,19 +1449,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1463,19 +1472,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1486,19 +1495,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1509,19 +1518,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1532,19 +1541,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1555,19 +1564,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1578,19 +1587,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1601,19 +1610,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1624,168 +1633,168 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>114</v>
@@ -1794,21 +1803,21 @@
         <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>115</v>
@@ -1817,21 +1826,21 @@
         <v>30</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>116</v>
@@ -1840,21 +1849,21 @@
         <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>117</v>
@@ -1863,21 +1872,21 @@
         <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>118</v>
@@ -1886,21 +1895,21 @@
         <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>119</v>
@@ -1909,861 +1918,861 @@
         <v>30</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2783,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2806,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2829,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2852,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2875,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2898,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2921,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,24 +2944,139 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -1685,7 +1685,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>93</v>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="188">
   <si>
     <t>Sezione</t>
   </si>
@@ -477,6 +477,105 @@
   </si>
   <si>
     <t>tipoScomparsa</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -535,17 +634,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3080,6 +3179,351 @@
         <v>21</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="196">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Ultimo luogo</t>
@@ -634,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1387,19 +1411,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1410,19 +1434,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1433,19 +1457,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1456,19 +1480,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1479,19 +1503,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1502,16 +1526,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>87</v>
@@ -1525,7 +1549,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>88</v>
@@ -1534,7 +1558,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>89</v>
@@ -1548,19 +1572,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1595,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1618,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1641,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1664,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1663,16 +1687,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1686,16 +1710,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1709,16 +1733,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1732,16 +1756,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1755,16 +1779,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1778,19 +1802,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1801,1166 +1825,1166 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>106</v>
@@ -2974,16 +2998,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>108</v>
@@ -2997,16 +3021,16 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>110</v>
@@ -3020,19 +3044,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3067,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3090,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3113,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3112,19 +3136,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3135,19 +3159,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3182,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3181,122 +3205,122 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>168</v>
@@ -3305,7 +3329,7 @@
         <v>30</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>169</v>
@@ -3314,12 +3338,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>170</v>
@@ -3328,136 +3352,136 @@
         <v>30</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>181</v>
@@ -3466,61 +3490,153 @@
         <v>30</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="197">
   <si>
     <t>Sezione</t>
   </si>
@@ -125,6 +125,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -398,10 +404,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -658,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1003,7 +1006,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -1095,7 +1098,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -1210,7 +1213,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>31</v>
@@ -1302,7 +1305,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -1503,19 +1506,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1529,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1549,16 +1552,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>89</v>
@@ -1572,7 +1575,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>90</v>
@@ -1581,7 +1584,7 @@
         <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>91</v>
@@ -1595,7 +1598,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>92</v>
@@ -1604,7 +1607,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>93</v>
@@ -1618,7 +1621,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>94</v>
@@ -1627,7 +1630,7 @@
         <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>95</v>
@@ -1641,7 +1644,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>96</v>
@@ -1650,7 +1653,7 @@
         <v>30</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>97</v>
@@ -1664,19 +1667,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1690,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1710,16 +1713,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1733,7 +1736,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
@@ -1742,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1756,7 +1759,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
@@ -1765,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
@@ -1788,7 +1791,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1802,16 +1805,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>112</v>
@@ -1825,7 +1828,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>113</v>
@@ -1834,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>114</v>
@@ -1848,7 +1851,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>115</v>
@@ -1857,7 +1860,7 @@
         <v>30</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>116</v>
@@ -1871,7 +1874,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>117</v>
@@ -1880,7 +1883,7 @@
         <v>30</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>118</v>
@@ -1894,19 +1897,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1917,145 +1920,145 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>124</v>
@@ -2064,21 +2067,21 @@
         <v>30</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>125</v>
@@ -2087,21 +2090,21 @@
         <v>30</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>126</v>
@@ -2110,21 +2113,21 @@
         <v>30</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>127</v>
@@ -2133,573 +2136,573 @@
         <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>128</v>
@@ -2708,21 +2711,21 @@
         <v>30</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>129</v>
@@ -2731,332 +2734,332 @@
         <v>30</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3070,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3093,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3116,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3139,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3162,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3185,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3208,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3231,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3254,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3277,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3297,346 +3300,415 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="199">
   <si>
     <t>Sezione</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -661,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1282,7 +1288,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>31</v>
@@ -1305,7 +1311,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -1529,19 +1535,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1552,19 +1558,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1575,16 +1581,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>91</v>
@@ -1598,7 +1604,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>92</v>
@@ -1607,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>93</v>
@@ -1621,7 +1627,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>94</v>
@@ -1630,7 +1636,7 @@
         <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>95</v>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>96</v>
@@ -1653,7 +1659,7 @@
         <v>30</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>97</v>
@@ -1667,7 +1673,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>98</v>
@@ -1676,7 +1682,7 @@
         <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>99</v>
@@ -1690,19 +1696,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1736,16 +1742,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1759,7 +1765,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
@@ -1768,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1782,7 +1788,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
@@ -1791,7 +1797,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1805,7 +1811,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
@@ -1814,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>112</v>
@@ -1828,16 +1834,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>114</v>
@@ -1851,7 +1857,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>115</v>
@@ -1860,7 +1866,7 @@
         <v>30</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>116</v>
@@ -1874,7 +1880,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>117</v>
@@ -1883,7 +1889,7 @@
         <v>30</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>118</v>
@@ -1897,7 +1903,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>119</v>
@@ -1906,7 +1912,7 @@
         <v>30</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>120</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1943,375 +1949,375 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>133</v>
@@ -2320,21 +2326,21 @@
         <v>30</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>134</v>
@@ -2343,21 +2349,21 @@
         <v>30</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>135</v>
@@ -2366,21 +2372,21 @@
         <v>30</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>136</v>
@@ -2389,21 +2395,21 @@
         <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>137</v>
@@ -2412,21 +2418,21 @@
         <v>30</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>138</v>
@@ -2435,228 +2441,228 @@
         <v>30</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>126</v>
@@ -2665,21 +2671,21 @@
         <v>30</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>127</v>
@@ -2688,21 +2694,21 @@
         <v>30</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>128</v>
@@ -2711,21 +2717,21 @@
         <v>30</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>129</v>
@@ -2734,113 +2740,113 @@
         <v>30</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>132</v>
@@ -2849,200 +2855,200 @@
         <v>30</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104">
@@ -3050,22 +3056,22 @@
         <v>146</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="105">
@@ -3073,22 +3079,22 @@
         <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="106">
@@ -3096,39 +3102,39 @@
         <v>146</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3168,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3185,19 +3191,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3208,19 +3214,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3237,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3254,19 +3260,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3283,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3306,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3329,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3352,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3369,346 +3375,415 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="201">
   <si>
     <t>Sezione</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -667,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2297,7 +2303,7 @@
         <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>30</v>
@@ -2306,7 +2312,7 @@
         <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2320,7 +2326,7 @@
         <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>30</v>
@@ -2329,7 +2335,7 @@
         <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2343,7 +2349,7 @@
         <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>30</v>
@@ -2352,7 +2358,7 @@
         <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2366,7 +2372,7 @@
         <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>30</v>
@@ -2375,7 +2381,7 @@
         <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2389,7 +2395,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>30</v>
@@ -2398,7 +2404,7 @@
         <v>124</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2412,7 +2418,7 @@
         <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>30</v>
@@ -2421,7 +2427,7 @@
         <v>124</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2435,7 +2441,7 @@
         <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>30</v>
@@ -2444,7 +2450,7 @@
         <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2458,7 +2464,7 @@
         <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>30</v>
@@ -2467,7 +2473,7 @@
         <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2481,7 +2487,7 @@
         <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>30</v>
@@ -2490,7 +2496,7 @@
         <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2547,11 +2553,11 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C82" s="2" t="s">
         <v>30</v>
       </c>
@@ -2559,67 +2565,67 @@
         <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>30</v>
@@ -2628,21 +2634,21 @@
         <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>30</v>
@@ -2651,21 +2657,21 @@
         <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>30</v>
@@ -2674,21 +2680,21 @@
         <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>30</v>
@@ -2697,21 +2703,21 @@
         <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>30</v>
@@ -2720,21 +2726,21 @@
         <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>30</v>
@@ -2743,21 +2749,21 @@
         <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>30</v>
@@ -2766,21 +2772,21 @@
         <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>30</v>
@@ -2789,21 +2795,21 @@
         <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>30</v>
@@ -2812,21 +2818,21 @@
         <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>30</v>
@@ -2835,21 +2841,21 @@
         <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>30</v>
@@ -2858,21 +2864,21 @@
         <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>30</v>
@@ -2881,18 +2887,18 @@
         <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>133</v>
@@ -2904,21 +2910,21 @@
         <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>30</v>
@@ -2927,18 +2933,18 @@
         <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>135</v>
@@ -2950,18 +2956,18 @@
         <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>136</v>
@@ -2973,18 +2979,18 @@
         <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>137</v>
@@ -2996,18 +3002,18 @@
         <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>138</v>
@@ -3019,18 +3025,18 @@
         <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>139</v>
@@ -3042,18 +3048,18 @@
         <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>140</v>
@@ -3065,21 +3071,21 @@
         <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>30</v>
@@ -3088,21 +3094,21 @@
         <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>30</v>
@@ -3111,13 +3117,13 @@
         <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107">
@@ -3125,22 +3131,22 @@
         <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="108">
@@ -3148,39 +3154,39 @@
         <v>148</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3220,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3243,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3266,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3289,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3312,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3335,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3358,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3381,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3404,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3427,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3444,346 +3450,392 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="C134" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="B137" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="203">
   <si>
     <t>Sezione</t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -673,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3772,39 +3778,39 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>198</v>
@@ -3818,7 +3824,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>199</v>
@@ -3827,7 +3833,7 @@
         <v>30</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>200</v>
@@ -3836,6 +3842,29 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -2013,7 +2013,7 @@
         <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>124</v>
@@ -2611,7 +2611,7 @@
         <v>33</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>124</v>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="209">
   <si>
     <t>Sezione</t>
   </si>
@@ -621,6 +621,24 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Atto Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoMatrimonio</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,3,4,5,6,7,8,9)</t>
+  </si>
+  <si>
+    <t>Atto Unione Civile</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoUnioneCivile</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,5,7,8,9)</t>
   </si>
 </sst>
 </file>
@@ -679,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -691,7 +709,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3868,6 +3886,558 @@
         <v>21</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -50,6 +50,9 @@
     <t>Dichiarazione di conformità</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>Sentenza straniera</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>Cognome</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.intestatari[0]</t>
@@ -766,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -809,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -870,110 +870,110 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
@@ -985,12 +985,12 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
@@ -1008,18 +1008,18 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
@@ -1031,18 +1031,18 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>31</v>
@@ -1054,12 +1054,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>39</v>
@@ -1077,12 +1077,12 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>41</v>
@@ -1100,12 +1100,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>43</v>
@@ -1123,12 +1123,12 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>45</v>
@@ -1146,18 +1146,18 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
@@ -1169,18 +1169,18 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>31</v>
@@ -1192,18 +1192,18 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>31</v>
@@ -1215,18 +1215,18 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>31</v>
@@ -1238,18 +1238,18 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>31</v>
@@ -1261,12 +1261,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>57</v>
@@ -1284,12 +1284,12 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>59</v>
@@ -1307,18 +1307,18 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>31</v>
@@ -1330,18 +1330,18 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -1353,18 +1353,18 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>31</v>
@@ -1376,18 +1376,18 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>31</v>
@@ -1399,18 +1399,18 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>31</v>
@@ -1422,18 +1422,18 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>31</v>
@@ -1445,18 +1445,18 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>31</v>
@@ -1468,18 +1468,18 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>31</v>
@@ -1491,18 +1491,18 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>31</v>
@@ -1514,18 +1514,18 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>31</v>
@@ -1537,18 +1537,18 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>31</v>
@@ -1560,18 +1560,18 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>31</v>
@@ -1583,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -1594,7 +1594,7 @@
         <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>87</v>
@@ -1606,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -1617,7 +1617,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>90</v>
@@ -1629,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -1640,7 +1640,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>90</v>
@@ -1652,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -1663,7 +1663,7 @@
         <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>90</v>
@@ -1675,7 +1675,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -1686,7 +1686,7 @@
         <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>90</v>
@@ -1698,7 +1698,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -1709,7 +1709,7 @@
         <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>90</v>
@@ -1721,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -1732,7 +1732,7 @@
         <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>90</v>
@@ -1744,7 +1744,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -1755,7 +1755,7 @@
         <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>90</v>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -1790,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -1813,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
@@ -1836,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -1859,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
@@ -1882,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
@@ -1893,7 +1893,7 @@
         <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>105</v>
@@ -1905,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -1916,7 +1916,7 @@
         <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>105</v>
@@ -1928,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -1939,7 +1939,7 @@
         <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>105</v>
@@ -1951,7 +1951,7 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
         <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>105</v>
@@ -1974,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -1985,7 +1985,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>105</v>
@@ -1997,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
@@ -2005,10 +2005,10 @@
         <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>124</v>
@@ -2031,7 +2031,7 @@
         <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>124</v>
@@ -2054,7 +2054,7 @@
         <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>124</v>
@@ -2077,7 +2077,7 @@
         <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>124</v>
@@ -2100,7 +2100,7 @@
         <v>41</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>124</v>
@@ -2123,7 +2123,7 @@
         <v>126</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>124</v>
@@ -2146,7 +2146,7 @@
         <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>124</v>
@@ -2169,7 +2169,7 @@
         <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>124</v>
@@ -2192,7 +2192,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>124</v>
@@ -2215,7 +2215,7 @@
         <v>130</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>124</v>
@@ -2238,7 +2238,7 @@
         <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>124</v>
@@ -2261,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>124</v>
@@ -2284,7 +2284,7 @@
         <v>57</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>124</v>
@@ -2307,7 +2307,7 @@
         <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>124</v>
@@ -2330,7 +2330,7 @@
         <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>124</v>
@@ -2353,7 +2353,7 @@
         <v>61</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>124</v>
@@ -2376,7 +2376,7 @@
         <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>124</v>
@@ -2399,7 +2399,7 @@
         <v>136</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>124</v>
@@ -2422,7 +2422,7 @@
         <v>137</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>124</v>
@@ -2445,7 +2445,7 @@
         <v>138</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>124</v>
@@ -2468,7 +2468,7 @@
         <v>139</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>124</v>
@@ -2491,7 +2491,7 @@
         <v>140</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>124</v>
@@ -2514,7 +2514,7 @@
         <v>141</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>124</v>
@@ -2537,7 +2537,7 @@
         <v>142</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>124</v>
@@ -2560,7 +2560,7 @@
         <v>144</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>124</v>
@@ -2583,7 +2583,7 @@
         <v>146</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>124</v>
@@ -2603,10 +2603,10 @@
         <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>124</v>
@@ -2629,7 +2629,7 @@
         <v>33</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>124</v>
@@ -2652,7 +2652,7 @@
         <v>37</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>124</v>
@@ -2675,7 +2675,7 @@
         <v>39</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>124</v>
@@ -2698,7 +2698,7 @@
         <v>41</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>124</v>
@@ -2721,7 +2721,7 @@
         <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>124</v>
@@ -2744,7 +2744,7 @@
         <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>124</v>
@@ -2767,7 +2767,7 @@
         <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>124</v>
@@ -2790,7 +2790,7 @@
         <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>124</v>
@@ -2813,7 +2813,7 @@
         <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>124</v>
@@ -2836,7 +2836,7 @@
         <v>131</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>124</v>
@@ -2859,7 +2859,7 @@
         <v>55</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>124</v>
@@ -2882,7 +2882,7 @@
         <v>57</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>124</v>
@@ -2905,7 +2905,7 @@
         <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>124</v>
@@ -2928,7 +2928,7 @@
         <v>133</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>124</v>
@@ -2951,7 +2951,7 @@
         <v>61</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>124</v>
@@ -2974,7 +2974,7 @@
         <v>135</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>124</v>
@@ -2997,7 +2997,7 @@
         <v>136</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>124</v>
@@ -3020,7 +3020,7 @@
         <v>137</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>124</v>
@@ -3043,7 +3043,7 @@
         <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>124</v>
@@ -3066,7 +3066,7 @@
         <v>139</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>124</v>
@@ -3089,7 +3089,7 @@
         <v>140</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>124</v>
@@ -3112,7 +3112,7 @@
         <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>124</v>
@@ -3135,7 +3135,7 @@
         <v>142</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>124</v>
@@ -3158,7 +3158,7 @@
         <v>144</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>124</v>
@@ -3181,7 +3181,7 @@
         <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>124</v>
@@ -3216,7 +3216,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -3239,7 +3239,7 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
@@ -3262,7 +3262,7 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
@@ -3273,7 +3273,7 @@
         <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>151</v>
@@ -3285,7 +3285,7 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
@@ -3296,7 +3296,7 @@
         <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>151</v>
@@ -3308,7 +3308,7 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
@@ -3319,7 +3319,7 @@
         <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>151</v>
@@ -3331,7 +3331,7 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
@@ -3342,7 +3342,7 @@
         <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>151</v>
@@ -3354,7 +3354,7 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
@@ -3365,7 +3365,7 @@
         <v>152</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>151</v>
@@ -3377,7 +3377,7 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
@@ -3388,7 +3388,7 @@
         <v>154</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>151</v>
@@ -3400,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -3423,7 +3423,7 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
@@ -3446,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
@@ -3469,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -3492,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
@@ -3515,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
@@ -3526,7 +3526,7 @@
         <v>169</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>170</v>
@@ -3549,7 +3549,7 @@
         <v>173</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>170</v>
@@ -3572,7 +3572,7 @@
         <v>175</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>170</v>
@@ -3595,7 +3595,7 @@
         <v>177</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>170</v>
@@ -3618,7 +3618,7 @@
         <v>179</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>170</v>
@@ -3641,7 +3641,7 @@
         <v>181</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>170</v>
@@ -3664,13 +3664,13 @@
         <v>183</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         <v>184</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>170</v>
@@ -3710,13 +3710,13 @@
         <v>186</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3733,7 +3733,7 @@
         <v>187</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>170</v>
@@ -3756,7 +3756,7 @@
         <v>189</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>170</v>
@@ -3779,7 +3779,7 @@
         <v>191</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>170</v>
@@ -3802,7 +3802,7 @@
         <v>193</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>170</v>
@@ -3825,7 +3825,7 @@
         <v>196</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>197</v>
@@ -3837,7 +3837,7 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137">
@@ -3848,7 +3848,7 @@
         <v>199</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>197</v>
@@ -3860,7 +3860,7 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138">
@@ -3871,7 +3871,7 @@
         <v>201</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>197</v>
@@ -3883,7 +3883,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139">
@@ -3894,7 +3894,7 @@
         <v>173</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>204</v>
@@ -3917,7 +3917,7 @@
         <v>175</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>204</v>
@@ -3940,7 +3940,7 @@
         <v>177</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>204</v>
@@ -3963,7 +3963,7 @@
         <v>179</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>204</v>
@@ -3986,7 +3986,7 @@
         <v>181</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>204</v>
@@ -4009,13 +4009,13 @@
         <v>183</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -4032,7 +4032,7 @@
         <v>184</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>204</v>
@@ -4055,13 +4055,13 @@
         <v>186</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4078,7 +4078,7 @@
         <v>187</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>204</v>
@@ -4101,7 +4101,7 @@
         <v>189</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>204</v>
@@ -4124,7 +4124,7 @@
         <v>191</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>204</v>
@@ -4147,7 +4147,7 @@
         <v>193</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>204</v>
@@ -4170,7 +4170,7 @@
         <v>173</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>207</v>
@@ -4193,7 +4193,7 @@
         <v>175</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>207</v>
@@ -4216,7 +4216,7 @@
         <v>177</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>207</v>
@@ -4239,7 +4239,7 @@
         <v>179</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>207</v>
@@ -4262,7 +4262,7 @@
         <v>181</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>207</v>
@@ -4285,13 +4285,13 @@
         <v>183</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>207</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4308,7 +4308,7 @@
         <v>184</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>207</v>
@@ -4331,13 +4331,13 @@
         <v>186</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>207</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4354,7 +4354,7 @@
         <v>187</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>207</v>
@@ -4377,7 +4377,7 @@
         <v>189</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>207</v>
@@ -4400,7 +4400,7 @@
         <v>191</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>207</v>
@@ -4423,7 +4423,7 @@
         <v>193</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>207</v>

--- a/docs/Mapping_casi_uso/morte/Morte_009.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="213">
   <si>
     <t>Sezione</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -697,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1088,7 +1100,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>31</v>
@@ -1111,7 +1123,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
@@ -1157,7 +1169,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
@@ -1180,7 +1192,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>31</v>
@@ -1272,7 +1284,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>31</v>
@@ -1295,7 +1307,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>31</v>
@@ -1318,7 +1330,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>31</v>
@@ -1341,7 +1353,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -1588,19 +1600,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1623,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1646,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1657,16 +1669,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>95</v>
@@ -1680,7 +1692,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>96</v>
@@ -1689,7 +1701,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>97</v>
@@ -1703,7 +1715,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>98</v>
@@ -1712,7 +1724,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>99</v>
@@ -1726,7 +1738,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>100</v>
@@ -1735,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>101</v>
@@ -1749,19 +1761,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1784,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1807,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1818,16 +1830,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1841,7 +1853,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>111</v>
@@ -1850,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>112</v>
@@ -1864,7 +1876,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>113</v>
@@ -1873,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>114</v>
@@ -1887,16 +1899,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>116</v>
@@ -1910,16 +1922,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>118</v>
@@ -1933,7 +1945,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>119</v>
@@ -1942,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>120</v>
@@ -1956,7 +1968,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>121</v>
@@ -1965,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>122</v>
@@ -1979,19 +1991,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2002,214 +2014,214 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>130</v>
@@ -2218,21 +2230,21 @@
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>131</v>
@@ -2241,159 +2253,159 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>136</v>
@@ -2402,21 +2414,21 @@
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>137</v>
@@ -2425,44 +2437,44 @@
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>139</v>
@@ -2471,21 +2483,21 @@
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>140</v>
@@ -2494,21 +2506,21 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>141</v>
@@ -2517,21 +2529,21 @@
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>142</v>
@@ -2540,366 +2552,366 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>132</v>
@@ -2908,21 +2920,21 @@
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>133</v>
@@ -2931,44 +2943,44 @@
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>135</v>
@@ -2977,378 +2989,378 @@
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3359,19 +3371,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3382,19 +3394,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3405,19 +3417,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3428,19 +3440,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3451,19 +3463,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3474,19 +3486,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3497,19 +3509,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3520,922 +3532,1060 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>208</v>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
